--- a/src/main/resources/195-iclyj-cloud/iclyj-common-datascope_structure.xlsx
+++ b/src/main/resources/195-iclyj-cloud/iclyj-common-datascope_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
   <si>
     <t>类名</t>
   </si>
@@ -121,7 +121,7 @@
     <t>private</t>
   </si>
   <si>
-    <t>dataScopeFilter(com.lyj.system.api.domain.SysUser)</t>
+    <t>dataScopeFilter(org.aspectj.lang.JoinPoint,com.lyj.system.api.domain.SysUser,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>com.lyj.common.datascope.service.AwaitUserService</t>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>dataScopeFilter(org.aspectj.lang.JoinPoint,com.lyj.system.api.domain.SysUser,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -1145,7 +1142,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1183,10 +1180,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
@@ -1219,10 +1216,10 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>57</v>
@@ -1243,16 +1240,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>57</v>
@@ -1282,7 +1279,7 @@
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>57</v>
@@ -1303,16 +1300,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>57</v>
